--- a/Refs/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Refs/Aircraft-Design-Ref-Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/matthew_burnett_sc_edu/Documents/Classes/Fall 24/Aircraft-Design-USC-Fall24/Aircraft-Design-USC-Fall24/Refs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2AD07D-7410-473D-ADB7-1C707C3E300F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{834D08BB-476C-4AA2-B984-A2201EDCC091}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7104" yWindow="3972" windowWidth="12264" windowHeight="8616" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1056,12 +1056,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1116,17 +1116,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1144,27 +1144,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="W7" zoomScale="211" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.1328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="72.5546875" customWidth="1"/>
+    <col min="15" max="15" width="72.53125" customWidth="1"/>
+    <col min="27" max="29" width="2.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" ht="114" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>183</v>
       </c>
